--- a/Answers-Report.xlsx
+++ b/Answers-Report.xlsx
@@ -1,41 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naren\iNeuron\Answer_Checker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F686F8-4A20-4AA3-8F53-909B286912C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Question ID</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Word Count</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Count Marks</t>
+  </si>
+  <si>
+    <t>Keyword Marks</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Write an essay about panchayat?</t>
+  </si>
+  <si>
+    <t>panchayat, gram, sabha, zilla, parishad</t>
+  </si>
+  <si>
+    <t>Explain about the governments in different countries?</t>
+  </si>
+  <si>
+    <t>government, central, community</t>
+  </si>
+  <si>
+    <t>What is demand deposits and how it plays in bank accounts?</t>
+  </si>
+  <si>
+    <t>demand deposits, withdraw, cheque</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,81 +106,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -394,141 +387,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="10.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="50.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.21875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="32.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="40.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="11.77734375" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="14.109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Question ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Questions</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Word Count</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Answers</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Count Marks</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Keyword Marks</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total Marks</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>25</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Write an essay about panchayat?</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>panchayat, gram, sabha, zilla, parishad</t>
-        </is>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>26</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Explain about the governments in different countries?</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>government, central, community</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>26) the central government prescribes that the number of dutch and french speaking ministers shall be equal in the central government some laws require support of majority of members in both groups, thus no one group can take decisions unilaterally o many powers of the central government have been given to the state governments in both the regions which are not subordinate to the central government brossels has a separate government in which both the communities have equal representation french agreed to equal representation in brussels because dutch agreed to equal representation in the central government the community government is elected by members of language group no matter where they live dutch. german one french. it has power related to the educational, language on and cultural issues.</t>
-        </is>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>27</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>What is demand deposits and how it plays in bank accounts?</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>demand deposits, withdraw, cheque</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27) workers who receive their salary often open a bank account in their name and deposit their extra money this amount earns some interest and remains safe with the bank. since these can be withdrawn these are known as demand deposits. these share the essential features of money demand deposits enable the payment by cheque. a cheque is a piece of paper instructing the bank to pay a certain amount from the person's bank account to the person in whose name the cheque has been issued. thus demand deposit as well as paper money constitute currency in the modern economy bno</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
